--- a/topmeperp_v1/UploadFile/site_budget_form.xlsx
+++ b/topmeperp_v1/UploadFile/site_budget_form.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Topmep_Web\topmeperp_v1\topmeperp_v1_master\topmeperp_v1\UploadFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VS.NET\topmeperp_v1\topmeperp_v1\topmeperp_v1\UploadFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8664"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8660"/>
   </bookViews>
   <sheets>
     <sheet name="工地費用預算_第1年度" sheetId="1" r:id="rId1"/>
@@ -944,7 +944,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -954,6 +954,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1028,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1079,6 +1085,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1400,23 +1421,23 @@
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="9.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="14" width="11.21875" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="14" width="11.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1434,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1449,7 +1470,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1464,7 +1485,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="18.649999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1479,11 +1500,11 @@
       <c r="N4" s="3"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1502,7 +1523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -1549,7 +1570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
@@ -1600,23 +1621,23 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="14" width="11.21875" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="14" width="11.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1634,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1649,7 +1670,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1664,7 +1685,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1685,11 +1706,11 @@
       <c r="N4" s="8"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1708,7 +1729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -1755,7 +1776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
@@ -1774,6 +1795,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
@@ -1783,12 +1810,6 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1802,23 +1823,23 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="14" width="11.21875" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="14" width="11.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1836,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -1851,7 +1872,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1866,7 +1887,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1887,11 +1908,11 @@
       <c r="N4" s="8"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -1910,7 +1931,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -1957,7 +1978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
@@ -2003,23 +2024,23 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="14" width="11.21875" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="14" width="11.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2037,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -2052,7 +2073,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2067,7 +2088,7 @@
       <c r="N3" s="3"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -2088,11 +2109,11 @@
       <c r="N4" s="8"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -2111,7 +2132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -2158,7 +2179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
@@ -2177,6 +2198,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
@@ -2186,12 +2213,6 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2204,23 +2225,23 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" customWidth="1"/>
+    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="8" max="14" width="11.21875" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.90625" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="14" width="11.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="25" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2238,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -2253,7 +2274,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:15" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2268,32 +2289,32 @@
       <c r="N3" s="3"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="17">
         <v>5</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -2312,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="16.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
@@ -2359,7 +2380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="10"/>
@@ -2378,6 +2399,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="O6:O7"/>
@@ -2387,12 +2414,6 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2406,7 +2427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
